--- a/BITUIN, LUCKY NIKKO.xlsx
+++ b/BITUIN, LUCKY NIKKO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868712AE-C6A9-4552-ABCA-7DC289189314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49368C52-ED1D-4A5E-962A-37F303D63182}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +563,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,7 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2630,9 +2636,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A21" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2654,64 +2660,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>44564</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2737,18 +2743,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2795,7 +2801,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.167000000000002</v>
+        <v>13.667000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2805,7 +2811,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.167000000000002</v>
+        <v>18.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3065,7 +3071,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="20"/>
@@ -3103,15 +3109,19 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="40">
+        <v>44958</v>
+      </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
@@ -3119,23 +3129,33 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="60">
+        <v>45008</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="40">
+        <v>45017</v>
+      </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3151,7 +3171,9 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45047</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -3167,7 +3189,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45078</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -3183,7 +3207,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45108</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -3199,7 +3225,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>45139</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3215,7 +3243,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45170</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -3231,7 +3261,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45200</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -3247,7 +3279,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40">
+        <v>45231</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3263,7 +3297,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40">
+        <v>45261</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3279,7 +3315,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45292</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3295,7 +3333,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="40">
+        <v>45323</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3311,7 +3351,9 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>45352</v>
+      </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3327,7 +3369,9 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45383</v>
+      </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3343,7 +3387,9 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45413</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -3359,7 +3405,9 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45444</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -3375,7 +3423,9 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45474</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -3391,7 +3441,9 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="40">
+        <v>45505</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -3407,7 +3459,9 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="40">
+        <v>45536</v>
+      </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -3423,7 +3477,9 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40">
+        <v>45566</v>
+      </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
@@ -3439,7 +3495,9 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>45597</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
@@ -3455,7 +3513,9 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>45627</v>
+      </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -3471,7 +3531,9 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45658</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -3487,7 +3549,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45689</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -3503,7 +3567,9 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="40">
+        <v>45717</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3519,7 +3585,9 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>45748</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -3535,7 +3603,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>45778</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -3551,7 +3621,9 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40">
+        <v>45809</v>
+      </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
@@ -3567,7 +3639,9 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="40">
+        <v>45839</v>
+      </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
@@ -3583,7 +3657,9 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>45870</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -4877,17 +4953,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -4964,12 +5040,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/BITUIN, LUCKY NIKKO.xlsx
+++ b/BITUIN, LUCKY NIKKO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49368C52-ED1D-4A5E-962A-37F303D63182}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADABCCE-722F-4757-92B8-992EE0D49C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -566,6 +566,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,9 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2636,9 +2636,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A21" activePane="bottomLeft"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,64 +2660,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>44564</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2743,18 +2743,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3148,7 +3148,7 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="60">
+      <c r="K25" s="49">
         <v>45008</v>
       </c>
     </row>
@@ -3156,7 +3156,9 @@
       <c r="A26" s="40">
         <v>45017</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -3168,7 +3170,9 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="49">
+        <v>45041</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
@@ -4953,17 +4957,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5040,12 +5044,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/BITUIN, LUCKY NIKKO.xlsx
+++ b/BITUIN, LUCKY NIKKO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADABCCE-722F-4757-92B8-992EE0D49C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078AF00D-CDBA-425A-8DAA-76FD3FC97D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2272,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2636,9 +2639,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2801,7 +2804,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.667000000000002</v>
+        <v>16.417000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2811,7 +2814,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.667000000000002</v>
+        <v>22.417000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3159,13 +3162,15 @@
       <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3179,13 +3184,15 @@
         <v>45047</v>
       </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
@@ -3196,19 +3203,27 @@
       <c r="A28" s="40">
         <v>45078</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="39">
+        <v>1</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="49">
+        <v>45112</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
